--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042155.303883632</v>
+        <v>1063308.976848918</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564199</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8601292.966131801</v>
+        <v>8601292.966131799</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H2" t="n">
-        <v>312.1772602390636</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.6316806838287</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.12200652863734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609342</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>1.595867353580316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>62.56386682245585</v>
       </c>
       <c r="G10" t="n">
-        <v>60.4453376112354</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>87.0830609582473</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.09260911231064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0426595656929</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.10115714452277</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.8887890979581</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>284.5615160058696</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>213.6743229269902</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5134569480836</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>61.75622389394815</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9140155965814</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="V37" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480836</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.7419800545109</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.211488636581</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.8417324117048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>235.4745188564438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>155.211488636581</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4909289099627722</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15.51599806121326</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.223260609829</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.223260609829</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D2" t="n">
-        <v>1198.223260609829</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E2" t="n">
-        <v>1198.223260609829</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F2" t="n">
-        <v>787.2373558202216</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G2" t="n">
-        <v>369.2735477184085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1711973675267</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C5" t="n">
-        <v>412.2086804271149</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>268.7224572585753</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>268.7224572585753</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>268.7224572585753</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>268.7224572585753</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2615.207670282225</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2284.144782938654</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1931.37612766854</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1557.91036940746</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.771037431648</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4708,10 +4708,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>663.9100130487641</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508537</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
         <v>348.0202652891861</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>567.286643657864</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D8" t="n">
-        <v>209.0209450511135</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E8" t="n">
-        <v>207.4089578252748</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>409.0761618661916</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F10" t="n">
-        <v>409.0761618661916</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
         <v>348.0202652891861</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.94664591678</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,52 +5039,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2390.551736153672</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2390.551736153672</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2390.551736153672</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>2017.085977892592</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1626.94664591678</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>653.2879649010699</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>438.9995417192326</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>211.6913543878343</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U13" t="n">
-        <v>211.6913543878343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V13" t="n">
-        <v>211.6913543878343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W13" t="n">
-        <v>211.6913543878343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1933.544000781331</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.581483840919</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.315785234169</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E14" t="n">
-        <v>820.5275326359244</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F14" t="n">
-        <v>409.5416278463169</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5276,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>240.076361604524</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>82.32798903705412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5704,19 +5704,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,19 +5750,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5829,49 +5829,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>598.0446400632119</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
         <v>2323.683332757143</v>
@@ -6063,28 +6063,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1865.381229508782</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>1496.41871256837</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1138.15301396162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>752.3647613633757</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F26" t="n">
-        <v>341.3788565737681</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6266,10 +6266,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2642.120401548716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>2251.981069572904</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.8791647482714</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C29" t="n">
         <v>1122.952954307291</v>
@@ -6446,43 +6446,43 @@
         <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090463</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194388</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6537,7 +6537,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6555,10 +6555,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>252.6519168570174</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>252.6519168570174</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940985</v>
+        <v>252.6519168570174</v>
       </c>
       <c r="E31" t="n">
-        <v>430.0992512117053</v>
+        <v>252.6519168570174</v>
       </c>
       <c r="F31" t="n">
-        <v>430.0992512117053</v>
+        <v>252.6519168570174</v>
       </c>
       <c r="G31" t="n">
-        <v>261.0994509500377</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>103.3510783825679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>252.6519168570174</v>
       </c>
     </row>
     <row r="32">
@@ -6704,7 +6704,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036422</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614627</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7053,10 +7053,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7126,19 +7126,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V37" t="n">
-        <v>600.9853550586245</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W37" t="n">
-        <v>600.9853550586245</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X37" t="n">
-        <v>372.9958041606071</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y37" t="n">
-        <v>372.9958041606071</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
         <v>1122.952954307291</v>
@@ -7157,43 +7157,43 @@
         <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090463</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194388</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J39" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615926</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7272,22 +7272,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>2313.924484908478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>2313.924484908478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>2313.924484908478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>2313.924484908478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>2144.92468464681</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W40" t="n">
-        <v>2482.860667836385</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X40" t="n">
-        <v>2482.860667836385</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="Y40" t="n">
-        <v>2482.860667836385</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1494.154169929768</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C41" t="n">
-        <v>1125.191652989356</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>766.9259543826058</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7430,31 +7430,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1936.146930626913</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1562.681172365833</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1494.154169929768</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7500,13 +7500,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W43" t="n">
-        <v>235.5914466506042</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X43" t="n">
-        <v>235.5914466506042</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253591</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7667,31 +7667,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2696.653203230381</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2696.653203230381</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.018536202444</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.256750840535</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.193863496965</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.425208226851</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1166.959449965771</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1166.959449965771</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>546.4805193761945</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>546.4805193761945</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>396.3638799638587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>396.3638799638587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>396.3638799638587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>227.3640797021911</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>69.61570713472128</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928328</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74551252529358</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22604,16 +22604,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22799,7 +22799,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>111.2910920805284</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,7 +22838,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047575</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>380.3345027186814</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23069,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,19 +23179,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>82.8571812004754</v>
       </c>
       <c r="G10" t="n">
-        <v>106.8644646478155</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>164.141106550042</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23431,13 +23431,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>72.57258286784722</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>69.58249272688994</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>61.74151045510206</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>106.8644646478155</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23707,13 +23707,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,16 +23786,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>224.2802725817785</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>75.42101316109282</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923383</v>
@@ -23944,19 +23944,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24181,10 +24181,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24418,7 +24418,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724696</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>129.2226540149254</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950175</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24652,7 +24652,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>11.36078253109403</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>144.2707130727114</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24841,25 +24841,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>105.5535783651028</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>86.05160619575685</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24895,7 +24895,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,7 +25129,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25366,19 +25366,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="V37" t="n">
-        <v>126.2654504674964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727114</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>35.42890878728421</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551381</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3962062443488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25843,16 +25843,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>51.04847948014725</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551381</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.98747366484895</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>119.449623731125</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26080,13 +26080,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>743855.5326798134</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>743855.5326798133</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165454</v>
@@ -26326,16 +26326,16 @@
         <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="H2" t="n">
         <v>303610.2405165453</v>
-      </c>
-      <c r="H2" t="n">
-        <v>303610.2405165454</v>
       </c>
       <c r="I2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="K2" t="n">
         <v>303610.2405165454</v>
@@ -26344,7 +26344,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
@@ -26353,7 +26353,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26488,13 +26488,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26503,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407689.7845651176</v>
+        <v>-405161.4634016756</v>
       </c>
       <c r="C6" t="n">
-        <v>182278.0946494268</v>
+        <v>184806.4158128692</v>
       </c>
       <c r="D6" t="n">
-        <v>182278.0946494269</v>
+        <v>184806.4158128692</v>
       </c>
       <c r="E6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="F6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="G6" t="n">
-        <v>215905.6946494267</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="H6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="I6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="J6" t="n">
-        <v>39482.47545683394</v>
+        <v>42010.79662027607</v>
       </c>
       <c r="K6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="L6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="M6" t="n">
-        <v>215905.6946494267</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="N6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="O6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="P6" t="n">
-        <v>215905.6946494268</v>
+        <v>218434.015812869</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26808,28 +26808,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32169,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35498,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36686,7 +36686,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37160,13 +37160,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,7 +37634,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,13 +37792,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38108,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
